--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2136.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2136.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.113591924889128</v>
+        <v>0.6087971329689026</v>
       </c>
       <c r="B1">
-        <v>3.322645310688114</v>
+        <v>1.360681056976318</v>
       </c>
       <c r="C1">
-        <v>1.230987013675192</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>0.800527220915992</v>
+        <v>2.449792623519897</v>
       </c>
       <c r="E1">
-        <v>0.6545633120043208</v>
+        <v>1.395982503890991</v>
       </c>
     </row>
   </sheetData>
